--- a/ExtraParmas.xlsx
+++ b/ExtraParmas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="17955" windowHeight="18180" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="17955" windowHeight="18180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="lilUCB_data" sheetId="1" r:id="rId1"/>
@@ -1020,37 +1020,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6.0082000000000003E-2</c:v>
+                  <c:v>0.10404584</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2690000000000003E-3</c:v>
+                  <c:v>1.166674E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.2209999999999991E-3</c:v>
+                  <c:v>1.2791139999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.1399999999999997E-3</c:v>
+                  <c:v>1.101626E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.9249999999999998E-3</c:v>
+                  <c:v>9.4544199999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.7419999999999998E-3</c:v>
+                  <c:v>9.0698800000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.7419999999999998E-3</c:v>
+                  <c:v>7.6151400000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.7419999999999998E-3</c:v>
+                  <c:v>6.7412000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.7419999999999998E-3</c:v>
+                  <c:v>6.0901799999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.7419999999999998E-3</c:v>
+                  <c:v>6.3166000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.7419999999999998E-3</c:v>
+                  <c:v>5.9720399999999996E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1120,37 +1120,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.17508699999999999</c:v>
+                  <c:v>0.1183196</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3159999999999996E-3</c:v>
+                  <c:v>2.3519660000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4260000000000003E-3</c:v>
+                  <c:v>1.248134E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0669999999999998E-3</c:v>
+                  <c:v>1.0009519999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.379E-3</c:v>
+                  <c:v>6.8626800000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0960000000000002E-3</c:v>
+                  <c:v>7.4221000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9480000000000001E-3</c:v>
+                  <c:v>6.1619600000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.993E-3</c:v>
+                  <c:v>3.9365600000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.784E-3</c:v>
+                  <c:v>7.7942799999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.565E-3</c:v>
+                  <c:v>3.4814999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6739999999999999E-3</c:v>
+                  <c:v>3.9106200000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1220,37 +1220,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.13697000000000001</c:v>
+                  <c:v>9.3654500000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8149999999999999E-3</c:v>
+                  <c:v>1.568578E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6420000000000004E-3</c:v>
+                  <c:v>1.5653440000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.1770000000000002E-3</c:v>
+                  <c:v>1.202612E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6740000000000002E-3</c:v>
+                  <c:v>1.3103139999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.202E-3</c:v>
+                  <c:v>5.8975199999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.109E-3</c:v>
+                  <c:v>3.7195800000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.516E-3</c:v>
+                  <c:v>2.60926E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0610000000000001E-3</c:v>
+                  <c:v>5.1027399999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.176E-3</c:v>
+                  <c:v>6.5120200000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.374E-3</c:v>
+                  <c:v>3.1369200000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1854,10 +1854,10 @@
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22597,8 +22597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1001"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22669,28 +22669,28 @@
         <v>3.3219999999999999E-3</v>
       </c>
       <c r="J2">
-        <f ca="1">OFFSET(lilUCB_data!$A$1, (ROW()-2)*100+ 1,0)</f>
-        <v>6.0082000000000003E-2</v>
+        <f ca="1">OFFSET(egreedy_data!$A$1, (ROW()-2)*100+ 1,0)</f>
+        <v>0.10404584</v>
       </c>
       <c r="K2">
-        <f ca="1">OFFSET(lilUCB_data!$B$1, (ROW()-2)*100+ 1,0)</f>
-        <v>2.6229999999999999E-3</v>
+        <f ca="1">OFFSET(egreedy_data!$B$1, (ROW()-2)*100+ 1,0)</f>
+        <v>2.4510000000000001E-3</v>
       </c>
       <c r="L2">
-        <f ca="1">OFFSET(lilUCB_data!$C$1, (ROW()-2)*100+ 1,0)</f>
-        <v>0.17508699999999999</v>
+        <f ca="1">OFFSET(egreedy_data!$C$1, (ROW()-2)*100+ 1,0)</f>
+        <v>0.1183196</v>
       </c>
       <c r="M2">
-        <f ca="1">OFFSET(lilUCB_data!$D$1, (ROW()-2)*100+ 1,0)</f>
-        <v>1.0928999999999999E-2</v>
+        <f ca="1">OFFSET(egreedy_data!$D$1, (ROW()-2)*100+ 1,0)</f>
+        <v>1.9530000000000001E-3</v>
       </c>
       <c r="N2">
-        <f ca="1">OFFSET(lilUCB_data!$E$1, (ROW()-2)*100+ 1,0)</f>
-        <v>0.13697000000000001</v>
+        <f ca="1">OFFSET(egreedy_data!$E$1, (ROW()-2)*100+ 1,0)</f>
+        <v>9.3654500000000002E-2</v>
       </c>
       <c r="O2">
-        <f ca="1">OFFSET(lilUCB_data!$F$1, (ROW()-2)*100+ 1,0)</f>
-        <v>5.1250000000000002E-3</v>
+        <f ca="1">OFFSET(egreedy_data!$F$1, (ROW()-2)*100+ 1,0)</f>
+        <v>3.3219999999999999E-3</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -22716,28 +22716,28 @@
         <v>1.4940000000000001E-3</v>
       </c>
       <c r="J3">
-        <f ca="1">OFFSET(lilUCB_data!$A$1, (ROW()-2)*100- 1,0)</f>
-        <v>8.2690000000000003E-3</v>
+        <f ca="1">OFFSET(egreedy_data!$A$1, (ROW()-2)*100- 1,0)</f>
+        <v>1.166674E-2</v>
       </c>
       <c r="K3">
-        <f ca="1">OFFSET(lilUCB_data!$B$1, (ROW()-2)*100- 1,0)</f>
-        <v>6.6000000000000005E-5</v>
+        <f ca="1">OFFSET(egreedy_data!$B$1, (ROW()-2)*100- 1,0)</f>
+        <v>5.8E-5</v>
       </c>
       <c r="L3">
-        <f ca="1">OFFSET(lilUCB_data!$C$1, (ROW()-2)*100- 1,0)</f>
-        <v>7.3159999999999996E-3</v>
+        <f ca="1">OFFSET(egreedy_data!$C$1, (ROW()-2)*100- 1,0)</f>
+        <v>2.3519660000000001E-2</v>
       </c>
       <c r="M3">
-        <f ca="1">OFFSET(lilUCB_data!$D$1, (ROW()-2)*100- 1,0)</f>
-        <v>4.8999999999999998E-5</v>
+        <f ca="1">OFFSET(egreedy_data!$D$1, (ROW()-2)*100- 1,0)</f>
+        <v>1.2400000000000001E-4</v>
       </c>
       <c r="N3">
-        <f ca="1">OFFSET(lilUCB_data!$E$1, (ROW()-2)*100- 1,0)</f>
-        <v>8.8149999999999999E-3</v>
+        <f ca="1">OFFSET(egreedy_data!$E$1, (ROW()-2)*100- 1,0)</f>
+        <v>1.568578E-2</v>
       </c>
       <c r="O3">
-        <f ca="1">OFFSET(lilUCB_data!$F$1, (ROW()-2)*100- 1,0)</f>
-        <v>8.2000000000000001E-5</v>
+        <f ca="1">OFFSET(egreedy_data!$F$1, (ROW()-2)*100- 1,0)</f>
+        <v>6.3699999999999998E-4</v>
       </c>
       <c r="P3">
         <v>10000</v>
@@ -22763,28 +22763,28 @@
         <v>1.756E-3</v>
       </c>
       <c r="J4">
-        <f ca="1">OFFSET(lilUCB_data!$A$1, (ROW()-2)*100+ 1,0)</f>
-        <v>8.2209999999999991E-3</v>
+        <f ca="1">OFFSET(egreedy_data!$A$1, (ROW()-2)*100- 1,0)</f>
+        <v>1.2791139999999999E-2</v>
       </c>
       <c r="K4">
-        <f ca="1">OFFSET(lilUCB_data!$B$1, (ROW()-2)*100- 1,0)</f>
-        <v>6.3E-5</v>
+        <f ca="1">OFFSET(egreedy_data!$B$1, (ROW()-2)*100- 1,0)</f>
+        <v>1.4300000000000001E-4</v>
       </c>
       <c r="L4">
-        <f ca="1">OFFSET(lilUCB_data!$C$1, (ROW()-2)*100- 1,0)</f>
-        <v>5.4260000000000003E-3</v>
+        <f ca="1">OFFSET(egreedy_data!$C$1, (ROW()-2)*100- 1,0)</f>
+        <v>1.248134E-2</v>
       </c>
       <c r="M4">
-        <f ca="1">OFFSET(lilUCB_data!$D$1, (ROW()-2)*100- 1,0)</f>
-        <v>5.7000000000000003E-5</v>
+        <f ca="1">OFFSET(egreedy_data!$D$1, (ROW()-2)*100- 1,0)</f>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="N4">
-        <f ca="1">OFFSET(lilUCB_data!$E$1, (ROW()-2)*100- 1,0)</f>
-        <v>8.6420000000000004E-3</v>
+        <f ca="1">OFFSET(egreedy_data!$E$1, (ROW()-2)*100- 1,0)</f>
+        <v>1.5653440000000001E-2</v>
       </c>
       <c r="O4">
-        <f ca="1">OFFSET(lilUCB_data!$F$1, (ROW()-2)*100- 1,0)</f>
-        <v>3.28E-4</v>
+        <f ca="1">OFFSET(egreedy_data!$F$1, (ROW()-2)*100- 1,0)</f>
+        <v>2.4699999999999999E-4</v>
       </c>
       <c r="P4">
         <v>20000</v>
@@ -22810,28 +22810,28 @@
         <v>1.279E-3</v>
       </c>
       <c r="J5">
-        <f ca="1">OFFSET(lilUCB_data!$A$1, (ROW()-2)*100- 1,0)</f>
-        <v>8.1399999999999997E-3</v>
+        <f ca="1">OFFSET(egreedy_data!$A$1, (ROW()-2)*100- 1,0)</f>
+        <v>1.101626E-2</v>
       </c>
       <c r="K5">
-        <f ca="1">OFFSET(lilUCB_data!$B$1, (ROW()-2)*100- 1,0)</f>
-        <v>6.3E-5</v>
+        <f ca="1">OFFSET(egreedy_data!$B$1, (ROW()-2)*100- 1,0)</f>
+        <v>8.3999999999999995E-5</v>
       </c>
       <c r="L5">
-        <f ca="1">OFFSET(lilUCB_data!$C$1, (ROW()-2)*100- 1,0)</f>
-        <v>3.0669999999999998E-3</v>
+        <f ca="1">OFFSET(egreedy_data!$C$1, (ROW()-2)*100- 1,0)</f>
+        <v>1.0009519999999999E-2</v>
       </c>
       <c r="M5">
-        <f ca="1">OFFSET(lilUCB_data!$D$1, (ROW()-2)*100- 1,0)</f>
-        <v>1.9000000000000001E-5</v>
+        <f ca="1">OFFSET(egreedy_data!$D$1, (ROW()-2)*100- 1,0)</f>
+        <v>4.9200000000000003E-4</v>
       </c>
       <c r="N5">
-        <f ca="1">OFFSET(lilUCB_data!$E$1, (ROW()-2)*100- 1,0)</f>
-        <v>8.1770000000000002E-3</v>
+        <f ca="1">OFFSET(egreedy_data!$E$1, (ROW()-2)*100- 1,0)</f>
+        <v>1.202612E-2</v>
       </c>
       <c r="O5">
-        <f ca="1">OFFSET(lilUCB_data!$F$1, (ROW()-2)*100- 1,0)</f>
-        <v>3.4200000000000002E-4</v>
+        <f ca="1">OFFSET(egreedy_data!$F$1, (ROW()-2)*100- 1,0)</f>
+        <v>8.8999999999999995E-5</v>
       </c>
       <c r="P5">
         <v>30000</v>
@@ -22857,28 +22857,28 @@
         <v>1.098E-3</v>
       </c>
       <c r="J6">
-        <f ca="1">OFFSET(lilUCB_data!$A$1, (ROW()-2)*100+ 1,0)</f>
-        <v>7.9249999999999998E-3</v>
+        <f ca="1">OFFSET(egreedy_data!$A$1, (ROW()-2)*100- 1,0)</f>
+        <v>9.4544199999999998E-3</v>
       </c>
       <c r="K6">
-        <f ca="1">OFFSET(lilUCB_data!$B$1, (ROW()-2)*100- 1,0)</f>
-        <v>6.3999999999999997E-5</v>
+        <f ca="1">OFFSET(egreedy_data!$B$1, (ROW()-2)*100- 1,0)</f>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="L6">
-        <f ca="1">OFFSET(lilUCB_data!$C$1, (ROW()-2)*100- 1,0)</f>
-        <v>2.379E-3</v>
+        <f ca="1">OFFSET(egreedy_data!$C$1, (ROW()-2)*100- 1,0)</f>
+        <v>6.8626800000000003E-3</v>
       </c>
       <c r="M6">
-        <f ca="1">OFFSET(lilUCB_data!$D$1, (ROW()-2)*100- 1,0)</f>
-        <v>1.1E-5</v>
+        <f ca="1">OFFSET(egreedy_data!$D$1, (ROW()-2)*100- 1,0)</f>
+        <v>6.5600000000000001E-4</v>
       </c>
       <c r="N6">
-        <f ca="1">OFFSET(lilUCB_data!$E$1, (ROW()-2)*100- 1,0)</f>
-        <v>2.6740000000000002E-3</v>
+        <f ca="1">OFFSET(egreedy_data!$E$1, (ROW()-2)*100- 1,0)</f>
+        <v>1.3103139999999999E-2</v>
       </c>
       <c r="O6">
-        <f ca="1">OFFSET(lilUCB_data!$F$1, (ROW()-2)*100- 1,0)</f>
-        <v>1.2999999999999999E-5</v>
+        <f ca="1">OFFSET(egreedy_data!$F$1, (ROW()-2)*100- 1,0)</f>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="P6">
         <v>40000</v>
@@ -22904,28 +22904,28 @@
         <v>4.6099999999999998E-4</v>
       </c>
       <c r="J7">
-        <f ca="1">OFFSET(lilUCB_data!$A$1, (ROW()-2)*100- 1,0)</f>
-        <v>7.7419999999999998E-3</v>
+        <f ca="1">OFFSET(egreedy_data!$A$1, (ROW()-2)*100- 1,0)</f>
+        <v>9.0698800000000006E-3</v>
       </c>
       <c r="K7">
-        <f ca="1">OFFSET(lilUCB_data!$B$1, (ROW()-2)*100- 1,0)</f>
-        <v>6.3999999999999997E-5</v>
+        <f ca="1">OFFSET(egreedy_data!$B$1, (ROW()-2)*100- 1,0)</f>
+        <v>5.7000000000000003E-5</v>
       </c>
       <c r="L7">
-        <f ca="1">OFFSET(lilUCB_data!$C$1, (ROW()-2)*100- 1,0)</f>
-        <v>2.0960000000000002E-3</v>
+        <f ca="1">OFFSET(egreedy_data!$C$1, (ROW()-2)*100- 1,0)</f>
+        <v>7.4221000000000001E-3</v>
       </c>
       <c r="M7">
-        <f ca="1">OFFSET(lilUCB_data!$D$1, (ROW()-2)*100- 1,0)</f>
-        <v>7.9999999999999996E-6</v>
+        <f ca="1">OFFSET(egreedy_data!$D$1, (ROW()-2)*100- 1,0)</f>
+        <v>1.7799999999999999E-4</v>
       </c>
       <c r="N7">
-        <f ca="1">OFFSET(lilUCB_data!$E$1, (ROW()-2)*100- 1,0)</f>
-        <v>2.202E-3</v>
+        <f ca="1">OFFSET(egreedy_data!$E$1, (ROW()-2)*100- 1,0)</f>
+        <v>5.8975199999999998E-3</v>
       </c>
       <c r="O7">
-        <f ca="1">OFFSET(lilUCB_data!$F$1, (ROW()-2)*100- 1,0)</f>
-        <v>7.9999999999999996E-6</v>
+        <f ca="1">OFFSET(egreedy_data!$F$1, (ROW()-2)*100- 1,0)</f>
+        <v>7.2999999999999999E-5</v>
       </c>
       <c r="P7">
         <v>50000</v>
@@ -22951,28 +22951,28 @@
         <v>9.6500000000000004E-4</v>
       </c>
       <c r="J8">
-        <f ca="1">OFFSET(lilUCB_data!$A$1, (ROW()-2)*100+ 1,0)</f>
-        <v>7.7419999999999998E-3</v>
+        <f ca="1">OFFSET(egreedy_data!$A$1, (ROW()-2)*100- 1,0)</f>
+        <v>7.6151400000000003E-3</v>
       </c>
       <c r="K8">
-        <f ca="1">OFFSET(lilUCB_data!$B$1, (ROW()-2)*100- 1,0)</f>
-        <v>6.3999999999999997E-5</v>
+        <f ca="1">OFFSET(egreedy_data!$B$1, (ROW()-2)*100- 1,0)</f>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="L8">
-        <f ca="1">OFFSET(lilUCB_data!$C$1, (ROW()-2)*100- 1,0)</f>
-        <v>1.9480000000000001E-3</v>
+        <f ca="1">OFFSET(egreedy_data!$C$1, (ROW()-2)*100- 1,0)</f>
+        <v>6.1619600000000002E-3</v>
       </c>
       <c r="M8">
-        <f ca="1">OFFSET(lilUCB_data!$D$1, (ROW()-2)*100- 1,0)</f>
-        <v>6.0000000000000002E-6</v>
+        <f ca="1">OFFSET(egreedy_data!$D$1, (ROW()-2)*100- 1,0)</f>
+        <v>4.6999999999999997E-5</v>
       </c>
       <c r="N8">
-        <f ca="1">OFFSET(lilUCB_data!$E$1, (ROW()-2)*100- 1,0)</f>
-        <v>1.109E-3</v>
+        <f ca="1">OFFSET(egreedy_data!$E$1, (ROW()-2)*100- 1,0)</f>
+        <v>3.7195800000000001E-3</v>
       </c>
       <c r="O8">
-        <f ca="1">OFFSET(lilUCB_data!$F$1, (ROW()-2)*100- 1,0)</f>
-        <v>1.9999999999999999E-6</v>
+        <f ca="1">OFFSET(egreedy_data!$F$1, (ROW()-2)*100- 1,0)</f>
+        <v>7.8999999999999996E-5</v>
       </c>
       <c r="P8">
         <v>60000</v>
@@ -22998,28 +22998,28 @@
         <v>1.4779999999999999E-3</v>
       </c>
       <c r="J9">
-        <f ca="1">OFFSET(lilUCB_data!$A$1, (ROW()-2)*100- 1,0)</f>
-        <v>7.7419999999999998E-3</v>
+        <f ca="1">OFFSET(egreedy_data!$A$1, (ROW()-2)*100- 1,0)</f>
+        <v>6.7412000000000001E-3</v>
       </c>
       <c r="K9">
-        <f ca="1">OFFSET(lilUCB_data!$B$1, (ROW()-2)*100- 1,0)</f>
-        <v>6.3999999999999997E-5</v>
+        <f ca="1">OFFSET(egreedy_data!$B$1, (ROW()-2)*100- 1,0)</f>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="L9">
-        <f ca="1">OFFSET(lilUCB_data!$C$1, (ROW()-2)*100- 1,0)</f>
-        <v>1.993E-3</v>
+        <f ca="1">OFFSET(egreedy_data!$C$1, (ROW()-2)*100- 1,0)</f>
+        <v>3.9365600000000004E-3</v>
       </c>
       <c r="M9">
-        <f ca="1">OFFSET(lilUCB_data!$D$1, (ROW()-2)*100- 1,0)</f>
-        <v>6.9999999999999999E-6</v>
+        <f ca="1">OFFSET(egreedy_data!$D$1, (ROW()-2)*100- 1,0)</f>
+        <v>1.4E-5</v>
       </c>
       <c r="N9">
-        <f ca="1">OFFSET(lilUCB_data!$E$1, (ROW()-2)*100- 1,0)</f>
-        <v>1.516E-3</v>
+        <f ca="1">OFFSET(egreedy_data!$E$1, (ROW()-2)*100- 1,0)</f>
+        <v>2.60926E-3</v>
       </c>
       <c r="O9">
-        <f ca="1">OFFSET(lilUCB_data!$F$1, (ROW()-2)*100- 1,0)</f>
-        <v>6.0000000000000002E-6</v>
+        <f ca="1">OFFSET(egreedy_data!$F$1, (ROW()-2)*100- 1,0)</f>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="P9">
         <v>70000</v>
@@ -23045,28 +23045,28 @@
         <v>2.251E-3</v>
       </c>
       <c r="J10">
-        <f ca="1">OFFSET(lilUCB_data!$A$1, (ROW()-2)*100+ 1,0)</f>
-        <v>7.7419999999999998E-3</v>
+        <f ca="1">OFFSET(egreedy_data!$A$1, (ROW()-2)*100- 1,0)</f>
+        <v>6.0901799999999997E-3</v>
       </c>
       <c r="K10">
-        <f ca="1">OFFSET(lilUCB_data!$B$1, (ROW()-2)*100- 1,0)</f>
-        <v>6.3999999999999997E-5</v>
+        <f ca="1">OFFSET(egreedy_data!$B$1, (ROW()-2)*100- 1,0)</f>
+        <v>3.4E-5</v>
       </c>
       <c r="L10">
-        <f ca="1">OFFSET(lilUCB_data!$C$1, (ROW()-2)*100- 1,0)</f>
-        <v>1.784E-3</v>
+        <f ca="1">OFFSET(egreedy_data!$C$1, (ROW()-2)*100- 1,0)</f>
+        <v>7.7942799999999998E-3</v>
       </c>
       <c r="M10">
-        <f ca="1">OFFSET(lilUCB_data!$D$1, (ROW()-2)*100- 1,0)</f>
-        <v>5.0000000000000004E-6</v>
+        <f ca="1">OFFSET(egreedy_data!$D$1, (ROW()-2)*100- 1,0)</f>
+        <v>9.2E-5</v>
       </c>
       <c r="N10">
-        <f ca="1">OFFSET(lilUCB_data!$E$1, (ROW()-2)*100- 1,0)</f>
-        <v>1.0610000000000001E-3</v>
+        <f ca="1">OFFSET(egreedy_data!$E$1, (ROW()-2)*100- 1,0)</f>
+        <v>5.1027399999999997E-3</v>
       </c>
       <c r="O10">
-        <f ca="1">OFFSET(lilUCB_data!$F$1, (ROW()-2)*100- 1,0)</f>
-        <v>1.9999999999999999E-6</v>
+        <f ca="1">OFFSET(egreedy_data!$F$1, (ROW()-2)*100- 1,0)</f>
+        <v>2.3800000000000001E-4</v>
       </c>
       <c r="P10">
         <v>80000</v>
@@ -23092,28 +23092,28 @@
         <v>6.8300000000000001E-4</v>
       </c>
       <c r="J11">
-        <f ca="1">OFFSET(lilUCB_data!$A$1, (ROW()-2)*100- 1,0)</f>
-        <v>7.7419999999999998E-3</v>
+        <f ca="1">OFFSET(egreedy_data!$A$1, (ROW()-2)*100- 1,0)</f>
+        <v>6.3166000000000003E-3</v>
       </c>
       <c r="K11">
-        <f ca="1">OFFSET(lilUCB_data!$B$1, (ROW()-2)*100- 1,0)</f>
-        <v>6.3999999999999997E-5</v>
+        <f ca="1">OFFSET(egreedy_data!$B$1, (ROW()-2)*100- 1,0)</f>
+        <v>3.8000000000000002E-5</v>
       </c>
       <c r="L11">
-        <f ca="1">OFFSET(lilUCB_data!$C$1, (ROW()-2)*100- 1,0)</f>
-        <v>1.565E-3</v>
+        <f ca="1">OFFSET(egreedy_data!$C$1, (ROW()-2)*100- 1,0)</f>
+        <v>3.4814999999999998E-3</v>
       </c>
       <c r="M11">
-        <f ca="1">OFFSET(lilUCB_data!$D$1, (ROW()-2)*100- 1,0)</f>
-        <v>5.0000000000000004E-6</v>
+        <f ca="1">OFFSET(egreedy_data!$D$1, (ROW()-2)*100- 1,0)</f>
+        <v>2.7700000000000001E-4</v>
       </c>
       <c r="N11">
-        <f ca="1">OFFSET(lilUCB_data!$E$1, (ROW()-2)*100- 1,0)</f>
-        <v>1.176E-3</v>
+        <f ca="1">OFFSET(egreedy_data!$E$1, (ROW()-2)*100- 1,0)</f>
+        <v>6.5120200000000003E-3</v>
       </c>
       <c r="O11">
-        <f ca="1">OFFSET(lilUCB_data!$F$1, (ROW()-2)*100- 1,0)</f>
-        <v>1.9999999999999999E-6</v>
+        <f ca="1">OFFSET(egreedy_data!$F$1, (ROW()-2)*100- 1,0)</f>
+        <v>2.0999999999999999E-5</v>
       </c>
       <c r="P11">
         <v>90000</v>
@@ -23139,28 +23139,28 @@
         <v>2.0300000000000001E-3</v>
       </c>
       <c r="J12">
-        <f ca="1">OFFSET(lilUCB_data!$A$1, (ROW()-2)*100+ 1,0)</f>
-        <v>7.7419999999999998E-3</v>
+        <f ca="1">OFFSET(egreedy_data!$A$1, (ROW()-2)*100- 1,0)</f>
+        <v>5.9720399999999996E-3</v>
       </c>
       <c r="K12">
-        <f ca="1">OFFSET(lilUCB_data!$B$1, (ROW()-2)*100- 1,0)</f>
-        <v>6.3999999999999997E-5</v>
+        <f ca="1">OFFSET(egreedy_data!$B$1, (ROW()-2)*100- 1,0)</f>
+        <v>3.8000000000000002E-5</v>
       </c>
       <c r="L12">
-        <f ca="1">OFFSET(lilUCB_data!$C$1, (ROW()-2)*100- 1,0)</f>
-        <v>1.6739999999999999E-3</v>
+        <f ca="1">OFFSET(egreedy_data!$C$1, (ROW()-2)*100- 1,0)</f>
+        <v>3.9106200000000001E-3</v>
       </c>
       <c r="M12">
-        <f ca="1">OFFSET(lilUCB_data!$D$1, (ROW()-2)*100- 1,0)</f>
-        <v>5.0000000000000004E-6</v>
+        <f ca="1">OFFSET(egreedy_data!$D$1, (ROW()-2)*100- 1,0)</f>
+        <v>1.9000000000000001E-5</v>
       </c>
       <c r="N12">
-        <f ca="1">OFFSET(lilUCB_data!$E$1, (ROW()-2)*100- 1,0)</f>
-        <v>1.374E-3</v>
+        <f ca="1">OFFSET(egreedy_data!$E$1, (ROW()-2)*100- 1,0)</f>
+        <v>3.1369200000000001E-3</v>
       </c>
       <c r="O12">
-        <f ca="1">OFFSET(lilUCB_data!$F$1, (ROW()-2)*100- 1,0)</f>
-        <v>3.9999999999999998E-6</v>
+        <f ca="1">OFFSET(egreedy_data!$F$1, (ROW()-2)*100- 1,0)</f>
+        <v>3.1000000000000001E-5</v>
       </c>
       <c r="P12">
         <v>100000</v>
@@ -42955,7 +42955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
       <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
@@ -42971,7 +42971,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I12"/>
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43304,7 +43304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
